--- a/Code/Results/Cases/Case_0_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_193/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.762955876856619</v>
+        <v>3.142102271962365</v>
       </c>
       <c r="D2">
-        <v>4.033179507426835</v>
+        <v>3.712465629373006</v>
       </c>
       <c r="E2">
-        <v>30.02188241200115</v>
+        <v>16.58665469366118</v>
       </c>
       <c r="F2">
-        <v>16.15214863757921</v>
+        <v>19.16919346126199</v>
       </c>
       <c r="G2">
-        <v>20.11977338231795</v>
+        <v>20.25933481174998</v>
       </c>
       <c r="H2">
-        <v>7.255654121867487</v>
+        <v>11.91216814505267</v>
       </c>
       <c r="I2">
-        <v>12.09117680696371</v>
+        <v>16.28600980451986</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.13570146918099</v>
+        <v>12.23378974099224</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.85331910453171</v>
+        <v>15.84976004048714</v>
       </c>
       <c r="O2">
-        <v>11.99564966543024</v>
+        <v>17.01519987945291</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.472391923691718</v>
+        <v>3.026146567211337</v>
       </c>
       <c r="D3">
-        <v>3.853837808573946</v>
+        <v>3.643005623447176</v>
       </c>
       <c r="E3">
-        <v>27.85147334303991</v>
+        <v>15.64065884266869</v>
       </c>
       <c r="F3">
-        <v>15.49706252425144</v>
+        <v>19.12824881328886</v>
       </c>
       <c r="G3">
-        <v>19.08888723574939</v>
+        <v>20.13930893388924</v>
       </c>
       <c r="H3">
-        <v>7.228876183726583</v>
+        <v>11.95096719524141</v>
       </c>
       <c r="I3">
-        <v>11.74187191436846</v>
+        <v>16.29720475172894</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.9171065929237</v>
+        <v>11.58480487203048</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.83193949508569</v>
+        <v>15.8605722277719</v>
       </c>
       <c r="O3">
-        <v>11.73039677253069</v>
+        <v>17.05059954428774</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.283912087493627</v>
+        <v>2.953148265520523</v>
       </c>
       <c r="D4">
-        <v>3.738767675153434</v>
+        <v>3.59916126006985</v>
       </c>
       <c r="E4">
-        <v>26.45425511259521</v>
+        <v>15.03436956984698</v>
       </c>
       <c r="F4">
-        <v>15.10034364603575</v>
+        <v>19.10995798842047</v>
       </c>
       <c r="G4">
-        <v>18.45894144514982</v>
+        <v>20.0752927672116</v>
       </c>
       <c r="H4">
-        <v>7.219422487664604</v>
+        <v>11.97728645026426</v>
       </c>
       <c r="I4">
-        <v>11.53653008831343</v>
+        <v>16.30911125797749</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.12751427074767</v>
+        <v>11.16505001818093</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.82226701863819</v>
+        <v>15.86888461912918</v>
       </c>
       <c r="O4">
-        <v>11.58024362449458</v>
+        <v>17.07752834424415</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.204580048840873</v>
+        <v>2.92299593851342</v>
       </c>
       <c r="D5">
-        <v>3.690667071978966</v>
+        <v>3.581007073503454</v>
       </c>
       <c r="E5">
-        <v>25.86833858254813</v>
+        <v>14.78117064480914</v>
       </c>
       <c r="F5">
-        <v>14.94029044080492</v>
+        <v>19.10423032858943</v>
       </c>
       <c r="G5">
-        <v>18.20337767360167</v>
+        <v>20.05166239513616</v>
       </c>
       <c r="H5">
-        <v>7.217255851405693</v>
+        <v>11.98863806179244</v>
       </c>
       <c r="I5">
-        <v>11.4552110560584</v>
+        <v>16.31522558043885</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.7953970312035</v>
+        <v>10.98874386231791</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.8191791667313</v>
+        <v>15.87269404036762</v>
       </c>
       <c r="O5">
-        <v>11.52222504170393</v>
+        <v>17.08980223897905</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.19125484195473</v>
+        <v>2.917966206439717</v>
       </c>
       <c r="D6">
-        <v>3.68260820911926</v>
+        <v>3.577975639333516</v>
       </c>
       <c r="E6">
-        <v>25.77004023328586</v>
+        <v>14.73876570188793</v>
       </c>
       <c r="F6">
-        <v>14.91381810095525</v>
+        <v>19.10338356485412</v>
       </c>
       <c r="G6">
-        <v>18.16102278999959</v>
+        <v>20.04788751905344</v>
       </c>
       <c r="H6">
-        <v>7.216995791354897</v>
+        <v>11.99056077191811</v>
       </c>
       <c r="I6">
-        <v>11.44185230509407</v>
+        <v>16.31631699064336</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.73962597621478</v>
+        <v>10.95915436157769</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.81871756292791</v>
+        <v>15.87335211716854</v>
       </c>
       <c r="O6">
-        <v>11.51278151297981</v>
+        <v>17.09191866121908</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.282852397772417</v>
+        <v>2.952743193324593</v>
       </c>
       <c r="D7">
-        <v>3.738123813783735</v>
+        <v>3.598917571280808</v>
       </c>
       <c r="E7">
-        <v>26.44642058720042</v>
+        <v>15.03097927354105</v>
       </c>
       <c r="F7">
-        <v>15.09817826906668</v>
+        <v>19.10987375153528</v>
       </c>
       <c r="G7">
-        <v>18.45548964588502</v>
+        <v>20.0749641069698</v>
       </c>
       <c r="H7">
-        <v>7.219386537053304</v>
+        <v>11.97743700817646</v>
       </c>
       <c r="I7">
-        <v>11.53542375970288</v>
+        <v>16.30918861164222</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.12307705054522</v>
+        <v>11.16269341596407</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.82222193753727</v>
+        <v>15.86893428389117</v>
       </c>
       <c r="O7">
-        <v>11.5794483755241</v>
+        <v>17.07768861782773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.664863247961375</v>
+        <v>3.102521847453984</v>
       </c>
       <c r="D8">
-        <v>3.97239101015146</v>
+        <v>3.688771812350798</v>
       </c>
       <c r="E8">
-        <v>29.28674239300981</v>
+        <v>16.26590072440844</v>
       </c>
       <c r="F8">
-        <v>15.92526375969471</v>
+        <v>19.15365703960962</v>
       </c>
       <c r="G8">
-        <v>19.76391111861072</v>
+        <v>20.21595603309101</v>
       </c>
       <c r="H8">
-        <v>7.244928197959133</v>
+        <v>11.92502704685101</v>
       </c>
       <c r="I8">
-        <v>11.96888030859185</v>
+        <v>16.28882358866415</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.72413921931457</v>
+        <v>12.01448775236387</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.84522132620016</v>
+        <v>15.85314144102567</v>
       </c>
       <c r="O8">
-        <v>11.90153967555545</v>
+        <v>17.0263245539008</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.333942018758958</v>
+        <v>3.424334111125984</v>
       </c>
       <c r="D9">
-        <v>4.391143854854549</v>
+        <v>3.854934309424067</v>
       </c>
       <c r="E9">
-        <v>34.35873449102471</v>
+        <v>18.59110249843191</v>
       </c>
       <c r="F9">
-        <v>17.5818660697725</v>
+        <v>19.29359732231236</v>
       </c>
       <c r="G9">
-        <v>22.33964628763703</v>
+        <v>20.56798145624823</v>
       </c>
       <c r="H9">
-        <v>7.353575740263299</v>
+        <v>11.84212374052569</v>
       </c>
       <c r="I9">
-        <v>12.8884383225872</v>
+        <v>16.28892739528953</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.53454017119048</v>
+        <v>13.51271075690047</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.91842111830916</v>
+        <v>15.83539872530913</v>
       </c>
       <c r="O9">
-        <v>12.634656600152</v>
+        <v>16.96703707160918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.776805692116072</v>
+        <v>3.6512504824965</v>
       </c>
       <c r="D10">
-        <v>4.672578123312994</v>
+        <v>3.970199243640252</v>
       </c>
       <c r="E10">
-        <v>37.80355809156033</v>
+        <v>20.24224550517165</v>
       </c>
       <c r="F10">
-        <v>18.80993028224477</v>
+        <v>19.42887624275601</v>
       </c>
       <c r="G10">
-        <v>24.22358671565179</v>
+        <v>20.87059419312544</v>
       </c>
       <c r="H10">
-        <v>7.473231728067499</v>
+        <v>11.79341513703977</v>
       </c>
       <c r="I10">
-        <v>13.60267185341422</v>
+        <v>16.31350491454826</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.39866971827001</v>
+        <v>14.5051302588383</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.99029892696294</v>
+        <v>15.83035548700587</v>
       </c>
       <c r="O10">
-        <v>13.23547263002358</v>
+        <v>16.94901986553418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.967773174187431</v>
+        <v>3.749277725985803</v>
       </c>
       <c r="D11">
-        <v>4.794694038129285</v>
+        <v>4.021023831025534</v>
       </c>
       <c r="E11">
-        <v>39.31497238430788</v>
+        <v>20.95086522886039</v>
       </c>
       <c r="F11">
-        <v>19.36943194398763</v>
+        <v>19.49731369484669</v>
       </c>
       <c r="G11">
-        <v>25.12564886469925</v>
+        <v>21.01726815435886</v>
       </c>
       <c r="H11">
-        <v>7.537162973559851</v>
+        <v>11.77392304993485</v>
       </c>
       <c r="I11">
-        <v>13.93530368804607</v>
+        <v>16.33000699279138</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.20348124989244</v>
+        <v>14.9326172765868</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.02714176633851</v>
+        <v>15.82978071425017</v>
       </c>
       <c r="O11">
-        <v>13.52229088422149</v>
+        <v>16.94641648638225</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.038586927078686</v>
+        <v>3.785641055007503</v>
       </c>
       <c r="D12">
-        <v>4.840072147854565</v>
+        <v>4.040028085047146</v>
       </c>
       <c r="E12">
-        <v>39.87980502974424</v>
+        <v>21.2131269118154</v>
       </c>
       <c r="F12">
-        <v>19.58133550980328</v>
+        <v>19.52420488566492</v>
       </c>
       <c r="G12">
-        <v>25.46979440389044</v>
+        <v>21.07405443175547</v>
       </c>
       <c r="H12">
-        <v>7.56280507656753</v>
+        <v>11.76692659765829</v>
       </c>
       <c r="I12">
-        <v>14.06232955051404</v>
+        <v>16.33701962281538</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.50207555352098</v>
+        <v>15.0910212281048</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.04170703159638</v>
+        <v>15.82980886637718</v>
       </c>
       <c r="O12">
-        <v>13.63284204158313</v>
+        <v>16.94623763249715</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.023402560640431</v>
+        <v>3.777843387264358</v>
       </c>
       <c r="D13">
-        <v>4.830337814712913</v>
+        <v>4.035946096081074</v>
       </c>
       <c r="E13">
-        <v>39.75848362172147</v>
+        <v>21.1569139246415</v>
       </c>
       <c r="F13">
-        <v>19.53569790789727</v>
+        <v>19.5183702901628</v>
       </c>
       <c r="G13">
-        <v>25.39575565353907</v>
+        <v>21.06177002974261</v>
       </c>
       <c r="H13">
-        <v>7.55721782025585</v>
+        <v>11.76841627319342</v>
       </c>
       <c r="I13">
-        <v>14.0349254441248</v>
+        <v>16.33547539943541</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.43804158631526</v>
+        <v>15.05706109095966</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.03854256343042</v>
+        <v>15.82979189454685</v>
       </c>
       <c r="O13">
-        <v>13.60894659958443</v>
+        <v>16.946240224348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.9736291075498</v>
+        <v>3.75228458956751</v>
       </c>
       <c r="D14">
-        <v>4.798444723299627</v>
+        <v>4.02259222778296</v>
       </c>
       <c r="E14">
-        <v>39.36158892871767</v>
+        <v>20.97256326220726</v>
       </c>
       <c r="F14">
-        <v>19.38686512047059</v>
+        <v>19.49950660268377</v>
       </c>
       <c r="G14">
-        <v>25.15399762855483</v>
+        <v>21.02191537453033</v>
       </c>
       <c r="H14">
-        <v>7.539243472945133</v>
+        <v>11.77333972794992</v>
       </c>
       <c r="I14">
-        <v>13.94573303921383</v>
+        <v>16.33056863391228</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.22817017248998</v>
+        <v>14.94571907254061</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.02832765831158</v>
+        <v>15.82977811247317</v>
       </c>
       <c r="O14">
-        <v>13.53134712244282</v>
+        <v>16.94638558539098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.942946142781532</v>
+        <v>3.736530182786112</v>
       </c>
       <c r="D15">
-        <v>4.778796307920197</v>
+        <v>4.014380797096726</v>
       </c>
       <c r="E15">
-        <v>39.11751744292416</v>
+        <v>20.85885270800023</v>
       </c>
       <c r="F15">
-        <v>19.295702883064</v>
+        <v>19.48807855055828</v>
       </c>
       <c r="G15">
-        <v>25.00568169072421</v>
+        <v>20.99766364893468</v>
       </c>
       <c r="H15">
-        <v>7.52842220895808</v>
+        <v>11.77640563777</v>
       </c>
       <c r="I15">
-        <v>13.89123775751652</v>
+        <v>16.32766248461812</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.09881571083087</v>
+        <v>14.87706543898578</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.02215118186808</v>
+        <v>15.82980163804563</v>
       </c>
       <c r="O15">
-        <v>13.48406777481574</v>
+        <v>16.94657978697374</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.764114960833565</v>
+        <v>3.644738671942302</v>
       </c>
       <c r="D16">
-        <v>4.664477315919592</v>
+        <v>3.966844434781619</v>
       </c>
       <c r="E16">
-        <v>37.70370491034414</v>
+        <v>20.19508331251818</v>
       </c>
       <c r="F16">
-        <v>18.77337418166002</v>
+        <v>19.42454113818232</v>
       </c>
       <c r="G16">
-        <v>24.16773467366713</v>
+        <v>20.86118571130636</v>
       </c>
       <c r="H16">
-        <v>7.469250556132819</v>
+        <v>11.79474275703974</v>
       </c>
       <c r="I16">
-        <v>13.58108482373935</v>
+        <v>16.3125334355022</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.34520746724567</v>
+        <v>14.47670796604445</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.98797607037262</v>
+        <v>15.83042752655027</v>
       </c>
       <c r="O16">
-        <v>13.21699978725248</v>
+        <v>16.94930279463207</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.651724947073469</v>
+        <v>3.587088421307003</v>
       </c>
       <c r="D17">
-        <v>4.592821252818637</v>
+        <v>3.937262430115609</v>
       </c>
       <c r="E17">
-        <v>36.82245907178771</v>
+        <v>19.7770224397125</v>
       </c>
       <c r="F17">
-        <v>18.45308543720644</v>
+        <v>19.3873187044851</v>
       </c>
       <c r="G17">
-        <v>23.67784035690225</v>
+        <v>20.77973364759756</v>
       </c>
       <c r="H17">
-        <v>7.435431574042959</v>
+        <v>11.80667578788663</v>
       </c>
       <c r="I17">
-        <v>13.39275786731814</v>
+        <v>16.30461442318053</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.87185601068647</v>
+        <v>14.2249390893638</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.96808485924851</v>
+        <v>15.83125086180093</v>
       </c>
       <c r="O17">
-        <v>13.05661769275518</v>
+        <v>16.95240789183764</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.586092927247885</v>
+        <v>3.553440700496469</v>
       </c>
       <c r="D18">
-        <v>4.551050987032773</v>
+        <v>3.920096677766532</v>
       </c>
       <c r="E18">
-        <v>36.31031884618699</v>
+        <v>19.53256321747017</v>
       </c>
       <c r="F18">
-        <v>18.26894701517333</v>
+        <v>19.36655977965954</v>
       </c>
       <c r="G18">
-        <v>23.3957261214779</v>
+        <v>20.73373637585725</v>
       </c>
       <c r="H18">
-        <v>7.416870005554496</v>
+        <v>11.81379017648553</v>
       </c>
       <c r="I18">
-        <v>13.28516611419011</v>
+        <v>16.30056067082999</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.59552828526014</v>
+        <v>14.07787336842934</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.95703305987367</v>
+        <v>15.83188635203144</v>
       </c>
       <c r="O18">
-        <v>12.96564121117572</v>
+        <v>16.9547201552269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.563701120727393</v>
+        <v>3.541964542721077</v>
       </c>
       <c r="D19">
-        <v>4.536813364410773</v>
+        <v>3.914259048967184</v>
       </c>
       <c r="E19">
-        <v>36.13599741764795</v>
+        <v>19.44910521709793</v>
       </c>
       <c r="F19">
-        <v>18.20661848216712</v>
+        <v>19.35964334831921</v>
       </c>
       <c r="G19">
-        <v>23.30015201013387</v>
+        <v>20.7183103174013</v>
       </c>
       <c r="H19">
-        <v>7.410736215402516</v>
+        <v>11.81624202045021</v>
       </c>
       <c r="I19">
-        <v>13.24886418475259</v>
+        <v>16.29927422941466</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.50126866645621</v>
+        <v>14.02769317772189</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.95335740813777</v>
+        <v>15.83212937288906</v>
       </c>
       <c r="O19">
-        <v>12.93505659737544</v>
+        <v>16.9555933438039</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.663791288177081</v>
+        <v>3.593276058789359</v>
       </c>
       <c r="D20">
-        <v>4.60050678039878</v>
+        <v>3.940427186954106</v>
       </c>
       <c r="E20">
-        <v>36.91681129259239</v>
+        <v>19.82193964882231</v>
       </c>
       <c r="F20">
-        <v>18.48717286789102</v>
+        <v>19.39121389203639</v>
       </c>
       <c r="G20">
-        <v>23.73002637508901</v>
+        <v>20.78831656702964</v>
       </c>
       <c r="H20">
-        <v>7.438939040563507</v>
+        <v>11.80537952621488</v>
       </c>
       <c r="I20">
-        <v>13.4127305224178</v>
+        <v>16.30540556682309</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.92266589983373</v>
+        <v>14.25197392849536</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.97016191599751</v>
+        <v>15.83114646755165</v>
       </c>
       <c r="O20">
-        <v>13.07355912564257</v>
+        <v>16.95202285726422</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.988289459322886</v>
+        <v>3.75981245477859</v>
       </c>
       <c r="D21">
-        <v>4.807836063781053</v>
+        <v>4.026521227410723</v>
       </c>
       <c r="E21">
-        <v>39.47836604392228</v>
+        <v>21.02687619055795</v>
       </c>
       <c r="F21">
-        <v>19.43058058351709</v>
+        <v>19.50502099462588</v>
       </c>
       <c r="G21">
-        <v>25.22505616608122</v>
+        <v>21.03358832322126</v>
       </c>
       <c r="H21">
-        <v>7.544483564916625</v>
+        <v>11.77188313587533</v>
       </c>
       <c r="I21">
-        <v>13.97190238688425</v>
+        <v>16.33198916206314</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.28998157492062</v>
+        <v>14.9785174591696</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.03131122639563</v>
+        <v>15.82977550125294</v>
       </c>
       <c r="O21">
-        <v>13.55408733008002</v>
+        <v>16.94632096935995</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.191620574991988</v>
+        <v>3.864235288404262</v>
       </c>
       <c r="D22">
-        <v>4.938293636681256</v>
+        <v>4.081374276169557</v>
       </c>
       <c r="E22">
-        <v>41.10900333398189</v>
+        <v>21.77896442571121</v>
       </c>
       <c r="F22">
-        <v>20.04732385357873</v>
+        <v>19.58507687425046</v>
       </c>
       <c r="G22">
-        <v>26.22341736020704</v>
+        <v>21.20111221331774</v>
       </c>
       <c r="H22">
-        <v>7.62184423959267</v>
+        <v>11.75223472258116</v>
       </c>
       <c r="I22">
-        <v>14.34355304157035</v>
+        <v>16.35381280680161</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.14766290890108</v>
+        <v>15.43308569788879</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.07486127003298</v>
+        <v>15.83031153639665</v>
       </c>
       <c r="O22">
-        <v>13.87944772318987</v>
+        <v>16.94729898728984</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.083896405582457</v>
+        <v>3.808909922493927</v>
       </c>
       <c r="D23">
-        <v>4.86913165609089</v>
+        <v>4.052230839191911</v>
       </c>
       <c r="E23">
-        <v>40.24250227373779</v>
+        <v>21.38078962638211</v>
       </c>
       <c r="F23">
-        <v>19.71816139490402</v>
+        <v>19.54183614997267</v>
       </c>
       <c r="G23">
-        <v>25.69151534925692</v>
+        <v>21.11105861723301</v>
       </c>
       <c r="H23">
-        <v>7.579766753881984</v>
+        <v>11.76251571283229</v>
       </c>
       <c r="I23">
-        <v>14.14464002613626</v>
+        <v>16.34175874034423</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.69317421254395</v>
+        <v>15.19233657640191</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.05128381556623</v>
+        <v>15.82989490258914</v>
       </c>
       <c r="O23">
-        <v>13.70476132514256</v>
+        <v>16.94634580656661</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.658339265206953</v>
+        <v>3.590480196415584</v>
       </c>
       <c r="D24">
-        <v>4.597033940867957</v>
+        <v>3.938996893781351</v>
       </c>
       <c r="E24">
-        <v>36.87417182238612</v>
+        <v>19.80164538486451</v>
       </c>
       <c r="F24">
-        <v>18.47176193373841</v>
+        <v>19.38945088057273</v>
       </c>
       <c r="G24">
-        <v>23.70643452577174</v>
+        <v>20.7844336378864</v>
       </c>
       <c r="H24">
-        <v>7.43735057460882</v>
+        <v>11.80596477521158</v>
       </c>
       <c r="I24">
-        <v>13.40369876361482</v>
+        <v>16.30504633629613</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.89970780797313</v>
+        <v>14.23975870315183</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.96922168413604</v>
+        <v>15.83119315899778</v>
       </c>
       <c r="O24">
-        <v>13.06589607447492</v>
+        <v>16.95219528966388</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.161509513833104</v>
+        <v>3.336239530784544</v>
       </c>
       <c r="D25">
-        <v>4.28237771305091</v>
+        <v>3.811132233472639</v>
       </c>
       <c r="E25">
-        <v>33.03777306452442</v>
+        <v>17.94515048916015</v>
       </c>
       <c r="F25">
-        <v>17.13115378563568</v>
+        <v>19.24999324768929</v>
       </c>
       <c r="G25">
-        <v>21.64350365962392</v>
+        <v>20.46485634560436</v>
       </c>
       <c r="H25">
-        <v>7.317480655784037</v>
+        <v>11.86241477323953</v>
       </c>
       <c r="I25">
-        <v>12.63262904424875</v>
+        <v>16.2845997320986</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.80956132052536</v>
+        <v>13.12623099666955</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.89551147504109</v>
+        <v>15.83878972986224</v>
       </c>
       <c r="O25">
-        <v>12.42540514494935</v>
+        <v>16.97860841979946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_193/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_193/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.142102271962365</v>
+        <v>4.762955876856619</v>
       </c>
       <c r="D2">
-        <v>3.712465629373006</v>
+        <v>4.033179507426835</v>
       </c>
       <c r="E2">
-        <v>16.58665469366118</v>
+        <v>30.02188241200109</v>
       </c>
       <c r="F2">
-        <v>19.16919346126199</v>
+        <v>16.15214863757916</v>
       </c>
       <c r="G2">
-        <v>20.25933481174998</v>
+        <v>20.11977338231789</v>
       </c>
       <c r="H2">
-        <v>11.91216814505267</v>
+        <v>7.255654121867487</v>
       </c>
       <c r="I2">
-        <v>16.28600980451986</v>
+        <v>12.09117680696369</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.23378974099224</v>
+        <v>20.13570146918101</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.84976004048714</v>
+        <v>11.85331910453171</v>
       </c>
       <c r="O2">
-        <v>17.01519987945291</v>
+        <v>11.99564966543021</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.026146567211337</v>
+        <v>4.472391923691806</v>
       </c>
       <c r="D3">
-        <v>3.643005623447176</v>
+        <v>3.853837808574031</v>
       </c>
       <c r="E3">
-        <v>15.64065884266869</v>
+        <v>27.85147334303993</v>
       </c>
       <c r="F3">
-        <v>19.12824881328886</v>
+        <v>15.49706252425133</v>
       </c>
       <c r="G3">
-        <v>20.13930893388924</v>
+        <v>19.08888723574933</v>
       </c>
       <c r="H3">
-        <v>11.95096719524141</v>
+        <v>7.228876183726474</v>
       </c>
       <c r="I3">
-        <v>16.29720475172894</v>
+        <v>11.74187191436837</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.58480487203048</v>
+        <v>18.91710659292373</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.8605722277719</v>
+        <v>11.83193949508567</v>
       </c>
       <c r="O3">
-        <v>17.05059954428774</v>
+        <v>11.73039677253059</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.953148265520523</v>
+        <v>4.283912087493538</v>
       </c>
       <c r="D4">
-        <v>3.59916126006985</v>
+        <v>3.738767675153421</v>
       </c>
       <c r="E4">
-        <v>15.03436956984698</v>
+        <v>26.45425511259531</v>
       </c>
       <c r="F4">
-        <v>19.10995798842047</v>
+        <v>15.10034364603576</v>
       </c>
       <c r="G4">
-        <v>20.0752927672116</v>
+        <v>18.45894144514982</v>
       </c>
       <c r="H4">
-        <v>11.97728645026426</v>
+        <v>7.219422487664648</v>
       </c>
       <c r="I4">
-        <v>16.30911125797749</v>
+        <v>11.53653008831347</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.16505001818093</v>
+        <v>18.12751427074763</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.86888461912918</v>
+        <v>11.82226701863819</v>
       </c>
       <c r="O4">
-        <v>17.07752834424415</v>
+        <v>11.58024362449461</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.92299593851342</v>
+        <v>4.20458004884087</v>
       </c>
       <c r="D5">
-        <v>3.581007073503454</v>
+        <v>3.690667071978921</v>
       </c>
       <c r="E5">
-        <v>14.78117064480914</v>
+        <v>25.86833858254807</v>
       </c>
       <c r="F5">
-        <v>19.10423032858943</v>
+        <v>14.94029044080486</v>
       </c>
       <c r="G5">
-        <v>20.05166239513616</v>
+        <v>18.20337767360155</v>
       </c>
       <c r="H5">
-        <v>11.98863806179244</v>
+        <v>7.217255851405737</v>
       </c>
       <c r="I5">
-        <v>16.31522558043885</v>
+        <v>11.45521105605836</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.98874386231791</v>
+        <v>17.79539703120352</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.87269404036762</v>
+        <v>11.81917916673131</v>
       </c>
       <c r="O5">
-        <v>17.08980223897905</v>
+        <v>11.52222504170387</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.917966206439717</v>
+        <v>4.191254841954685</v>
       </c>
       <c r="D6">
-        <v>3.577975639333516</v>
+        <v>3.682608209119241</v>
       </c>
       <c r="E6">
-        <v>14.73876570188793</v>
+        <v>25.77004023328585</v>
       </c>
       <c r="F6">
-        <v>19.10338356485412</v>
+        <v>14.91381810095526</v>
       </c>
       <c r="G6">
-        <v>20.04788751905344</v>
+        <v>18.16102278999961</v>
       </c>
       <c r="H6">
-        <v>11.99056077191811</v>
+        <v>7.216995791354912</v>
       </c>
       <c r="I6">
-        <v>16.31631699064336</v>
+        <v>11.4418523050941</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.95915436157769</v>
+        <v>17.73962597621482</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.87335211716854</v>
+        <v>11.81871756292794</v>
       </c>
       <c r="O6">
-        <v>17.09191866121908</v>
+        <v>11.51278151297983</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.952743193324593</v>
+        <v>4.2828523977723</v>
       </c>
       <c r="D7">
-        <v>3.598917571280808</v>
+        <v>3.738123813783722</v>
       </c>
       <c r="E7">
-        <v>15.03097927354105</v>
+        <v>26.44642058720045</v>
       </c>
       <c r="F7">
-        <v>19.10987375153528</v>
+        <v>15.09817826906665</v>
       </c>
       <c r="G7">
-        <v>20.0749641069698</v>
+        <v>18.45548964588497</v>
       </c>
       <c r="H7">
-        <v>11.97743700817646</v>
+        <v>7.219386537053304</v>
       </c>
       <c r="I7">
-        <v>16.30918861164222</v>
+        <v>11.5354237597029</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.16269341596407</v>
+        <v>18.12307705054518</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.86893428389117</v>
+        <v>11.82222193753724</v>
       </c>
       <c r="O7">
-        <v>17.07768861782773</v>
+        <v>11.57944837552409</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.102521847453984</v>
+        <v>4.664863247961319</v>
       </c>
       <c r="D8">
-        <v>3.688771812350798</v>
+        <v>3.972391010151433</v>
       </c>
       <c r="E8">
-        <v>16.26590072440844</v>
+        <v>29.2867423930098</v>
       </c>
       <c r="F8">
-        <v>19.15365703960962</v>
+        <v>15.92526375969462</v>
       </c>
       <c r="G8">
-        <v>20.21595603309101</v>
+        <v>19.7639111186106</v>
       </c>
       <c r="H8">
-        <v>11.92502704685101</v>
+        <v>7.244928197959122</v>
       </c>
       <c r="I8">
-        <v>16.28882358866415</v>
+        <v>11.96888030859175</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.01448775236387</v>
+        <v>19.72413921931467</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.85314144102567</v>
+        <v>11.84522132620014</v>
       </c>
       <c r="O8">
-        <v>17.0263245539008</v>
+        <v>11.90153967555531</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.424334111125984</v>
+        <v>5.333942018758835</v>
       </c>
       <c r="D9">
-        <v>3.854934309424067</v>
+        <v>4.391143854854638</v>
       </c>
       <c r="E9">
-        <v>18.59110249843191</v>
+        <v>34.35873449102468</v>
       </c>
       <c r="F9">
-        <v>19.29359732231236</v>
+        <v>17.58186606977246</v>
       </c>
       <c r="G9">
-        <v>20.56798145624823</v>
+        <v>22.33964628763703</v>
       </c>
       <c r="H9">
-        <v>11.84212374052569</v>
+        <v>7.353575740263237</v>
       </c>
       <c r="I9">
-        <v>16.28892739528953</v>
+        <v>12.88843832258718</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.51271075690047</v>
+        <v>22.53454017119051</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.83539872530913</v>
+        <v>11.91842111830917</v>
       </c>
       <c r="O9">
-        <v>16.96703707160918</v>
+        <v>12.63465660015197</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.6512504824965</v>
+        <v>5.776805692116072</v>
       </c>
       <c r="D10">
-        <v>3.970199243640252</v>
+        <v>4.672578123312929</v>
       </c>
       <c r="E10">
-        <v>20.24224550517165</v>
+        <v>37.8035580915603</v>
       </c>
       <c r="F10">
-        <v>19.42887624275601</v>
+        <v>18.80993028224478</v>
       </c>
       <c r="G10">
-        <v>20.87059419312544</v>
+        <v>24.22358671565171</v>
       </c>
       <c r="H10">
-        <v>11.79341513703977</v>
+        <v>7.473231728067538</v>
       </c>
       <c r="I10">
-        <v>16.31350491454826</v>
+        <v>13.60267185341423</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.5051302588383</v>
+        <v>24.39866971826999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.83035548700587</v>
+        <v>11.99029892696297</v>
       </c>
       <c r="O10">
-        <v>16.94901986553418</v>
+        <v>13.23547263002359</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.749277725985803</v>
+        <v>5.967773174187447</v>
       </c>
       <c r="D11">
-        <v>4.021023831025534</v>
+        <v>4.794694038129306</v>
       </c>
       <c r="E11">
-        <v>20.95086522886039</v>
+        <v>39.31497238430782</v>
       </c>
       <c r="F11">
-        <v>19.49731369484669</v>
+        <v>19.3694319439876</v>
       </c>
       <c r="G11">
-        <v>21.01726815435886</v>
+        <v>25.12564886469924</v>
       </c>
       <c r="H11">
-        <v>11.77392304993485</v>
+        <v>7.537162973559909</v>
       </c>
       <c r="I11">
-        <v>16.33000699279138</v>
+        <v>13.93530368804606</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.9326172765868</v>
+        <v>25.20348124989241</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.82978071425017</v>
+        <v>12.02714176633848</v>
       </c>
       <c r="O11">
-        <v>16.94641648638225</v>
+        <v>13.52229088422148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.785641055007503</v>
+        <v>6.038586927078613</v>
       </c>
       <c r="D12">
-        <v>4.040028085047146</v>
+        <v>4.840072147854693</v>
       </c>
       <c r="E12">
-        <v>21.2131269118154</v>
+        <v>39.87980502974418</v>
       </c>
       <c r="F12">
-        <v>19.52420488566492</v>
+        <v>19.58133550980329</v>
       </c>
       <c r="G12">
-        <v>21.07405443175547</v>
+        <v>25.46979440389039</v>
       </c>
       <c r="H12">
-        <v>11.76692659765829</v>
+        <v>7.562805076567535</v>
       </c>
       <c r="I12">
-        <v>16.33701962281538</v>
+        <v>14.06232955051406</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.0910212281048</v>
+        <v>25.50207555352096</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.82980886637718</v>
+        <v>12.0417070315964</v>
       </c>
       <c r="O12">
-        <v>16.94623763249715</v>
+        <v>13.63284204158316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.777843387264358</v>
+        <v>6.023402560640421</v>
       </c>
       <c r="D13">
-        <v>4.035946096081074</v>
+        <v>4.830337814712905</v>
       </c>
       <c r="E13">
-        <v>21.1569139246415</v>
+        <v>39.75848362172151</v>
       </c>
       <c r="F13">
-        <v>19.5183702901628</v>
+        <v>19.53569790789728</v>
       </c>
       <c r="G13">
-        <v>21.06177002974261</v>
+        <v>25.3957556535391</v>
       </c>
       <c r="H13">
-        <v>11.76841627319342</v>
+        <v>7.557217820255886</v>
       </c>
       <c r="I13">
-        <v>16.33547539943541</v>
+        <v>14.03492544412483</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.05706109095966</v>
+        <v>25.43804158631525</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.82979189454685</v>
+        <v>12.03854256343041</v>
       </c>
       <c r="O13">
-        <v>16.946240224348</v>
+        <v>13.60894659958445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.75228458956751</v>
+        <v>5.973629107549814</v>
       </c>
       <c r="D14">
-        <v>4.02259222778296</v>
+        <v>4.798444723299585</v>
       </c>
       <c r="E14">
-        <v>20.97256326220726</v>
+        <v>39.36158892871774</v>
       </c>
       <c r="F14">
-        <v>19.49950660268377</v>
+        <v>19.38686512047061</v>
       </c>
       <c r="G14">
-        <v>21.02191537453033</v>
+        <v>25.15399762855489</v>
       </c>
       <c r="H14">
-        <v>11.77333972794992</v>
+        <v>7.539243472945167</v>
       </c>
       <c r="I14">
-        <v>16.33056863391228</v>
+        <v>13.94573303921385</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.94571907254061</v>
+        <v>25.22817017248992</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.82977811247317</v>
+        <v>12.02832765831154</v>
       </c>
       <c r="O14">
-        <v>16.94638558539098</v>
+        <v>13.53134712244285</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.736530182786112</v>
+        <v>5.942946142781523</v>
       </c>
       <c r="D15">
-        <v>4.014380797096726</v>
+        <v>4.77879630792016</v>
       </c>
       <c r="E15">
-        <v>20.85885270800023</v>
+        <v>39.1175174429242</v>
       </c>
       <c r="F15">
-        <v>19.48807855055828</v>
+        <v>19.29570288306396</v>
       </c>
       <c r="G15">
-        <v>20.99766364893468</v>
+        <v>25.00568169072409</v>
       </c>
       <c r="H15">
-        <v>11.77640563777</v>
+        <v>7.528422208958103</v>
       </c>
       <c r="I15">
-        <v>16.32766248461812</v>
+        <v>13.89123775751651</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.87706543898578</v>
+        <v>25.0988157108308</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.82980163804563</v>
+        <v>12.02215118186809</v>
       </c>
       <c r="O15">
-        <v>16.94657978697374</v>
+        <v>13.48406777481574</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.644738671942302</v>
+        <v>5.764114960833559</v>
       </c>
       <c r="D16">
-        <v>3.966844434781619</v>
+        <v>4.664477315919629</v>
       </c>
       <c r="E16">
-        <v>20.19508331251818</v>
+        <v>37.7037049103442</v>
       </c>
       <c r="F16">
-        <v>19.42454113818232</v>
+        <v>18.77337418166002</v>
       </c>
       <c r="G16">
-        <v>20.86118571130636</v>
+        <v>24.16773467366715</v>
       </c>
       <c r="H16">
-        <v>11.79474275703974</v>
+        <v>7.469250556132826</v>
       </c>
       <c r="I16">
-        <v>16.3125334355022</v>
+        <v>13.58108482373932</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.47670796604445</v>
+        <v>24.34520746724569</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.83042752655027</v>
+        <v>11.98797607037259</v>
       </c>
       <c r="O16">
-        <v>16.94930279463207</v>
+        <v>13.21699978725246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.587088421307003</v>
+        <v>5.651724947073505</v>
       </c>
       <c r="D17">
-        <v>3.937262430115609</v>
+        <v>4.592821252818645</v>
       </c>
       <c r="E17">
-        <v>19.7770224397125</v>
+        <v>36.82245907178778</v>
       </c>
       <c r="F17">
-        <v>19.3873187044851</v>
+        <v>18.45308543720638</v>
       </c>
       <c r="G17">
-        <v>20.77973364759756</v>
+        <v>23.67784035690224</v>
       </c>
       <c r="H17">
-        <v>11.80667578788663</v>
+        <v>7.435431574042878</v>
       </c>
       <c r="I17">
-        <v>16.30461442318053</v>
+        <v>13.39275786731807</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.2249390893638</v>
+        <v>23.87185601068651</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.83125086180093</v>
+        <v>11.96808485924844</v>
       </c>
       <c r="O17">
-        <v>16.95240789183764</v>
+        <v>13.0566176927551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.553440700496469</v>
+        <v>5.586092927247901</v>
       </c>
       <c r="D18">
-        <v>3.920096677766532</v>
+        <v>4.551050987032868</v>
       </c>
       <c r="E18">
-        <v>19.53256321747017</v>
+        <v>36.31031884618707</v>
       </c>
       <c r="F18">
-        <v>19.36655977965954</v>
+        <v>18.26894701517333</v>
       </c>
       <c r="G18">
-        <v>20.73373637585725</v>
+        <v>23.39572612147788</v>
       </c>
       <c r="H18">
-        <v>11.81379017648553</v>
+        <v>7.416870005554496</v>
       </c>
       <c r="I18">
-        <v>16.30056067082999</v>
+        <v>13.28516611419011</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.07787336842934</v>
+        <v>23.59552828526014</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.83188635203144</v>
+        <v>11.9570330598737</v>
       </c>
       <c r="O18">
-        <v>16.9547201552269</v>
+        <v>12.96564121117573</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.541964542721077</v>
+        <v>5.563701120727447</v>
       </c>
       <c r="D19">
-        <v>3.914259048967184</v>
+        <v>4.536813364410648</v>
       </c>
       <c r="E19">
-        <v>19.44910521709793</v>
+        <v>36.13599741764793</v>
       </c>
       <c r="F19">
-        <v>19.35964334831921</v>
+        <v>18.20661848216709</v>
       </c>
       <c r="G19">
-        <v>20.7183103174013</v>
+        <v>23.30015201013387</v>
       </c>
       <c r="H19">
-        <v>11.81624202045021</v>
+        <v>7.410736215402511</v>
       </c>
       <c r="I19">
-        <v>16.29927422941466</v>
+        <v>13.24886418475255</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.02769317772189</v>
+        <v>23.50126866645624</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.83212937288906</v>
+        <v>11.95335740813777</v>
       </c>
       <c r="O19">
-        <v>16.9555933438039</v>
+        <v>12.93505659737539</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.593276058789359</v>
+        <v>5.663791288177049</v>
       </c>
       <c r="D20">
-        <v>3.940427186954106</v>
+        <v>4.600506780398765</v>
       </c>
       <c r="E20">
-        <v>19.82193964882231</v>
+        <v>36.91681129259238</v>
       </c>
       <c r="F20">
-        <v>19.39121389203639</v>
+        <v>18.48717286789103</v>
       </c>
       <c r="G20">
-        <v>20.78831656702964</v>
+        <v>23.73002637508897</v>
       </c>
       <c r="H20">
-        <v>11.80537952621488</v>
+        <v>7.438939040563546</v>
       </c>
       <c r="I20">
-        <v>16.30540556682309</v>
+        <v>13.41273052241782</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.25197392849536</v>
+        <v>23.92266589983371</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.83114646755165</v>
+        <v>11.9701619159975</v>
       </c>
       <c r="O20">
-        <v>16.95202285726422</v>
+        <v>13.07355912564261</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.75981245477859</v>
+        <v>5.988289459322768</v>
       </c>
       <c r="D21">
-        <v>4.026521227410723</v>
+        <v>4.807836063781068</v>
       </c>
       <c r="E21">
-        <v>21.02687619055795</v>
+        <v>39.47836604392241</v>
       </c>
       <c r="F21">
-        <v>19.50502099462588</v>
+        <v>19.43058058351709</v>
       </c>
       <c r="G21">
-        <v>21.03358832322126</v>
+        <v>25.22505616608132</v>
       </c>
       <c r="H21">
-        <v>11.77188313587533</v>
+        <v>7.544483564916566</v>
       </c>
       <c r="I21">
-        <v>16.33198916206314</v>
+        <v>13.97190238688424</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.9785174591696</v>
+        <v>25.28998157492071</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.82977550125294</v>
+        <v>12.03131122639557</v>
       </c>
       <c r="O21">
-        <v>16.94632096935995</v>
+        <v>13.55408733007998</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.864235288404262</v>
+        <v>6.191620574991981</v>
       </c>
       <c r="D22">
-        <v>4.081374276169557</v>
+        <v>4.938293636681236</v>
       </c>
       <c r="E22">
-        <v>21.77896442571121</v>
+        <v>41.10900333398188</v>
       </c>
       <c r="F22">
-        <v>19.58507687425046</v>
+        <v>20.0473238535787</v>
       </c>
       <c r="G22">
-        <v>21.20111221331774</v>
+        <v>26.223417360207</v>
       </c>
       <c r="H22">
-        <v>11.75223472258116</v>
+        <v>7.621844239592651</v>
       </c>
       <c r="I22">
-        <v>16.35381280680161</v>
+        <v>14.34355304157031</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.43308569788879</v>
+        <v>26.1476629089011</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.83031153639665</v>
+        <v>12.07486127003302</v>
       </c>
       <c r="O22">
-        <v>16.94729898728984</v>
+        <v>13.87944772318982</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.808909922493927</v>
+        <v>6.083896405582456</v>
       </c>
       <c r="D23">
-        <v>4.052230839191911</v>
+        <v>4.869131656090872</v>
       </c>
       <c r="E23">
-        <v>21.38078962638211</v>
+        <v>40.24250227373781</v>
       </c>
       <c r="F23">
-        <v>19.54183614997267</v>
+        <v>19.718161394904</v>
       </c>
       <c r="G23">
-        <v>21.11105861723301</v>
+        <v>25.69151534925695</v>
       </c>
       <c r="H23">
-        <v>11.76251571283229</v>
+        <v>7.579766753881947</v>
       </c>
       <c r="I23">
-        <v>16.34175874034423</v>
+        <v>14.14464002613622</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.19233657640191</v>
+        <v>25.69317421254402</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.82989490258914</v>
+        <v>12.05128381556621</v>
       </c>
       <c r="O23">
-        <v>16.94634580656661</v>
+        <v>13.7047613251425</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.590480196415584</v>
+        <v>5.658339265206954</v>
       </c>
       <c r="D24">
-        <v>3.938996893781351</v>
+        <v>4.597033940867949</v>
       </c>
       <c r="E24">
-        <v>19.80164538486451</v>
+        <v>36.87417182238607</v>
       </c>
       <c r="F24">
-        <v>19.38945088057273</v>
+        <v>18.47176193373839</v>
       </c>
       <c r="G24">
-        <v>20.7844336378864</v>
+        <v>23.70643452577169</v>
       </c>
       <c r="H24">
-        <v>11.80596477521158</v>
+        <v>7.437350574608814</v>
       </c>
       <c r="I24">
-        <v>16.30504633629613</v>
+        <v>13.40369876361482</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.23975870315183</v>
+        <v>23.89970780797312</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.83119315899778</v>
+        <v>11.96922168413608</v>
       </c>
       <c r="O24">
-        <v>16.95219528966388</v>
+        <v>13.06589607447491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.336239530784544</v>
+        <v>5.16150951383312</v>
       </c>
       <c r="D25">
-        <v>3.811132233472639</v>
+        <v>4.282377713050918</v>
       </c>
       <c r="E25">
-        <v>17.94515048916015</v>
+        <v>33.03777306452445</v>
       </c>
       <c r="F25">
-        <v>19.24999324768929</v>
+        <v>17.13115378563568</v>
       </c>
       <c r="G25">
-        <v>20.46485634560436</v>
+        <v>21.64350365962392</v>
       </c>
       <c r="H25">
-        <v>11.86241477323953</v>
+        <v>7.317480655784024</v>
       </c>
       <c r="I25">
-        <v>16.2845997320986</v>
+        <v>12.63262904424875</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.12623099666955</v>
+        <v>21.80956132052535</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.83878972986224</v>
+        <v>11.89551147504106</v>
       </c>
       <c r="O25">
-        <v>16.97860841979946</v>
+        <v>12.42540514494934</v>
       </c>
     </row>
   </sheetData>
